--- a/data/metadata/Informe-01-080101-010105-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-080101-010105-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>ccaa-nombre</t>
   </si>
@@ -61,22 +61,19 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-dimension:tipo-personal</t>
+    <t>iaest-measure:tipo-personal</t>
   </si>
   <si>
     <t>iaest-measure:personas</t>
   </si>
   <si>
-    <t>iaest-dimension:jornadas-trabajo</t>
-  </si>
-  <si>
-    <t>iaest-measure:municipio-nombre</t>
+    <t>iaest-measure:jornadas-trabajo</t>
   </si>
   <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
-    <t>iaest-dimension:sexo</t>
+    <t>iaest-measure:sexo</t>
   </si>
   <si>
     <t>dim</t>
@@ -91,6 +88,9 @@
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
     <t>URI-Provincia</t>
   </si>
   <si>
@@ -98,15 +98,6 @@
   </si>
   <si>
     <t>mapping-ccaa-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-tipo-personal.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-jornadas-trabajo.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
   </si>
 </sst>
 </file>
@@ -242,21 +233,21 @@
         <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -274,7 +265,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
@@ -283,10 +274,10 @@
         <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>22</v>
@@ -295,12 +286,12 @@
         <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -318,7 +309,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
@@ -345,15 +336,6 @@
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-080101-010105-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-080101-010105-A-TC-TM-TP.xlsx
@@ -11,93 +11,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>tipo-personal</t>
-  </si>
-  <si>
-    <t>tiempo-trabajo-codigo</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>personas</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>jornadas-trabajo</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>tipo-personal-codigo</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>Provincia codigo</t>
+  </si>
+  <si>
+    <t>Jornadas trabajo</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Comarca codigo</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>Tipo personal código</t>
+  </si>
+  <si>
+    <t>Tipo personal</t>
+  </si>
+  <si>
+    <t>Tiempo trabajo código</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>CCAA código</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
+    <t>iaest-measure:jornadas-trabajo</t>
+  </si>
+  <si>
+    <t>iaest-measure:sexo</t>
+  </si>
+  <si>
     <t>iaest-measure:tipo-personal</t>
   </si>
   <si>
-    <t>iaest-measure:personas</t>
-  </si>
-  <si>
-    <t>iaest-measure:jornadas-trabajo</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:sexo</t>
-  </si>
-  <si>
     <t>dim</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>URI-Comunidad</t>
   </si>
   <si>
     <t>xsd:int</t>
   </si>
   <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
     <t>URI-Municipio</t>
   </si>
   <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
   </si>
 </sst>
 </file>
@@ -212,130 +209,125 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
